--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.3234967725109</v>
+        <v>839.5694794936894</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.2269514929258</v>
+        <v>1148.736001034607</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.7007301574964</v>
+        <v>1039.102249356966</v>
       </c>
       <c r="AD2" t="n">
-        <v>624323.4967725109</v>
+        <v>839569.4794936894</v>
       </c>
       <c r="AE2" t="n">
-        <v>854226.9514929258</v>
+        <v>1148736.001034607</v>
       </c>
       <c r="AF2" t="n">
         <v>3.642208096079858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.09895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>772700.7301574964</v>
+        <v>1039102.249356966</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.8198011222963</v>
+        <v>643.1573429105138</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.4058877005197</v>
+        <v>879.9962506695916</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.1411854357955</v>
+        <v>796.0106435881797</v>
       </c>
       <c r="AD3" t="n">
-        <v>476819.8011222963</v>
+        <v>643157.3429105137</v>
       </c>
       <c r="AE3" t="n">
-        <v>652405.8877005196</v>
+        <v>879996.2506695916</v>
       </c>
       <c r="AF3" t="n">
         <v>4.59000668819913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.19270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>590141.1854357955</v>
+        <v>796010.6435881797</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.5323864075747</v>
+        <v>597.868917165935</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.4416489481079</v>
+        <v>818.0306285815258</v>
       </c>
       <c r="AC4" t="n">
-        <v>534.0907266625587</v>
+        <v>739.958933502902</v>
       </c>
       <c r="AD4" t="n">
-        <v>431532.3864075748</v>
+        <v>597868.917165935</v>
       </c>
       <c r="AE4" t="n">
-        <v>590441.6489481078</v>
+        <v>818030.6285815258</v>
       </c>
       <c r="AF4" t="n">
         <v>4.950297924603112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>534090.7266625587</v>
+        <v>739958.933502902</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.0808350867147</v>
+        <v>570.6630099935074</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.5636665228002</v>
+        <v>780.8063061482945</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.4916253669636</v>
+        <v>706.2872481580339</v>
       </c>
       <c r="AD5" t="n">
-        <v>414080.8350867147</v>
+        <v>570663.0099935074</v>
       </c>
       <c r="AE5" t="n">
-        <v>566563.6665228002</v>
+        <v>780806.3061482946</v>
       </c>
       <c r="AF5" t="n">
         <v>5.128575187447369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>512491.6253669636</v>
+        <v>706287.2481580339</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>398.8232835422749</v>
+        <v>555.3712930302868</v>
       </c>
       <c r="AB6" t="n">
-        <v>545.6876113840297</v>
+        <v>759.8835043762761</v>
       </c>
       <c r="AC6" t="n">
-        <v>493.6079516309098</v>
+        <v>687.3612892218001</v>
       </c>
       <c r="AD6" t="n">
-        <v>398823.2835422748</v>
+        <v>555371.2930302868</v>
       </c>
       <c r="AE6" t="n">
-        <v>545687.6113840296</v>
+        <v>759883.504376276</v>
       </c>
       <c r="AF6" t="n">
         <v>5.256045238466845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>493607.9516309098</v>
+        <v>687361.2892218002</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.6969268464838</v>
+        <v>541.4232606752238</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.0417481108387</v>
+        <v>740.7991911643201</v>
       </c>
       <c r="AC7" t="n">
-        <v>488.5009216244935</v>
+        <v>670.0983560777914</v>
       </c>
       <c r="AD7" t="n">
-        <v>394696.9268464838</v>
+        <v>541423.2606752238</v>
       </c>
       <c r="AE7" t="n">
-        <v>540041.7481108387</v>
+        <v>740799.1911643201</v>
       </c>
       <c r="AF7" t="n">
         <v>5.339217186649764e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.40104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>488500.9216244934</v>
+        <v>670098.3560777914</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>391.3746255553728</v>
+        <v>538.1009593841127</v>
       </c>
       <c r="AB8" t="n">
-        <v>535.4960289147522</v>
+        <v>736.2534719682336</v>
       </c>
       <c r="AC8" t="n">
-        <v>484.3890394885243</v>
+        <v>665.9864739418223</v>
       </c>
       <c r="AD8" t="n">
-        <v>391374.6255553728</v>
+        <v>538100.9593841127</v>
       </c>
       <c r="AE8" t="n">
-        <v>535496.0289147522</v>
+        <v>736253.4719682336</v>
       </c>
       <c r="AF8" t="n">
         <v>5.39581027313075e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>484389.0394885243</v>
+        <v>665986.4739418223</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>378.9033213832481</v>
+        <v>525.6969750196926</v>
       </c>
       <c r="AB9" t="n">
-        <v>518.4322403513419</v>
+        <v>719.2817933356648</v>
       </c>
       <c r="AC9" t="n">
-        <v>468.9537949564283</v>
+        <v>650.6345484980455</v>
       </c>
       <c r="AD9" t="n">
-        <v>378903.3213832481</v>
+        <v>525696.9750196926</v>
       </c>
       <c r="AE9" t="n">
-        <v>518432.2403513419</v>
+        <v>719281.7933356648</v>
       </c>
       <c r="AF9" t="n">
         <v>5.428476357127231e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH9" t="n">
-        <v>468953.7949564283</v>
+        <v>650634.5484980455</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>376.1877244206433</v>
+        <v>522.9813780570878</v>
       </c>
       <c r="AB10" t="n">
-        <v>514.7166407834235</v>
+        <v>715.5661937677463</v>
       </c>
       <c r="AC10" t="n">
-        <v>465.5928069963952</v>
+        <v>647.2735605380122</v>
       </c>
       <c r="AD10" t="n">
-        <v>376187.7244206434</v>
+        <v>522981.3780570878</v>
       </c>
       <c r="AE10" t="n">
-        <v>514716.6407834234</v>
+        <v>715566.1937677463</v>
       </c>
       <c r="AF10" t="n">
         <v>5.449028266062285e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>465592.8069963952</v>
+        <v>647273.5605380123</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>374.1996004160518</v>
+        <v>520.9932540524962</v>
       </c>
       <c r="AB11" t="n">
-        <v>511.9964018105004</v>
+        <v>712.8459547948235</v>
       </c>
       <c r="AC11" t="n">
-        <v>463.1321838131687</v>
+        <v>644.8129373547858</v>
       </c>
       <c r="AD11" t="n">
-        <v>374199.6004160518</v>
+        <v>520993.2540524963</v>
       </c>
       <c r="AE11" t="n">
-        <v>511996.4018105004</v>
+        <v>712845.9547948234</v>
       </c>
       <c r="AF11" t="n">
         <v>5.477957639343301e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>463132.1838131687</v>
+        <v>644812.9373547859</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>373.9752710163202</v>
+        <v>520.7689246527646</v>
       </c>
       <c r="AB12" t="n">
-        <v>511.6894644290729</v>
+        <v>712.5390174133958</v>
       </c>
       <c r="AC12" t="n">
-        <v>462.8545401046353</v>
+        <v>644.5352936462524</v>
       </c>
       <c r="AD12" t="n">
-        <v>373975.2710163202</v>
+        <v>520768.9246527646</v>
       </c>
       <c r="AE12" t="n">
-        <v>511689.4644290729</v>
+        <v>712539.0174133958</v>
       </c>
       <c r="AF12" t="n">
         <v>5.475848205874893e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>28.671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>462854.5401046353</v>
+        <v>644535.2936462524</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.9560771909761</v>
+        <v>720.5328947743576</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.0045524740824</v>
+        <v>985.8648942981332</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.1928899222003</v>
+        <v>891.775332456388</v>
       </c>
       <c r="AD2" t="n">
-        <v>526956.0771909761</v>
+        <v>720532.8947743576</v>
       </c>
       <c r="AE2" t="n">
-        <v>721004.5524740824</v>
+        <v>985864.8942981332</v>
       </c>
       <c r="AF2" t="n">
         <v>4.447197625071661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.61979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>652192.8899222002</v>
+        <v>891775.332456388</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.4769648446595</v>
+        <v>584.2984314386849</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.6293304869276</v>
+        <v>799.4628913219249</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.5468119281999</v>
+        <v>723.1632750273749</v>
       </c>
       <c r="AD3" t="n">
-        <v>429476.9648446595</v>
+        <v>584298.4314386849</v>
       </c>
       <c r="AE3" t="n">
-        <v>587629.3304869276</v>
+        <v>799462.8913219249</v>
       </c>
       <c r="AF3" t="n">
         <v>5.349404287713912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>531546.8119281998</v>
+        <v>723163.2750273749</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.1770274814938</v>
+        <v>543.3179449254111</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.8033753308638</v>
+        <v>743.3915817429963</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.8081058256251</v>
+        <v>672.4433325380818</v>
       </c>
       <c r="AD4" t="n">
-        <v>398177.0274814938</v>
+        <v>543317.9449254111</v>
       </c>
       <c r="AE4" t="n">
-        <v>544803.3753308638</v>
+        <v>743391.5817429963</v>
       </c>
       <c r="AF4" t="n">
         <v>5.692521111464194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>492808.1058256251</v>
+        <v>672443.3325380818</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.0466263962069</v>
+        <v>528.1533784213435</v>
       </c>
       <c r="AB5" t="n">
-        <v>524.1012930597888</v>
+        <v>722.6427528386733</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.0818012309465</v>
+        <v>653.6747427432232</v>
       </c>
       <c r="AD5" t="n">
-        <v>383046.6263962069</v>
+        <v>528153.3784213435</v>
       </c>
       <c r="AE5" t="n">
-        <v>524101.2930597888</v>
+        <v>722642.7528386733</v>
       </c>
       <c r="AF5" t="n">
         <v>5.83450276080772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>474081.8012309465</v>
+        <v>653674.7427432232</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>368.0938194336999</v>
+        <v>513.2678912665408</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.6422029024006</v>
+        <v>702.2757726121267</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.5752979236661</v>
+        <v>635.2515585242619</v>
       </c>
       <c r="AD6" t="n">
-        <v>368093.8194336999</v>
+        <v>513267.8912665408</v>
       </c>
       <c r="AE6" t="n">
-        <v>503642.2029024006</v>
+        <v>702275.7726121268</v>
       </c>
       <c r="AF6" t="n">
         <v>5.959734136610485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>455575.2979236661</v>
+        <v>635251.5585242619</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>363.7947052287114</v>
+        <v>508.8672918350671</v>
       </c>
       <c r="AB7" t="n">
-        <v>497.7599651836025</v>
+        <v>696.2546783292394</v>
       </c>
       <c r="AC7" t="n">
-        <v>450.2544527169776</v>
+        <v>629.8051090290744</v>
       </c>
       <c r="AD7" t="n">
-        <v>363794.7052287114</v>
+        <v>508867.2918350672</v>
       </c>
       <c r="AE7" t="n">
-        <v>497759.9651836025</v>
+        <v>696254.6783292394</v>
       </c>
       <c r="AF7" t="n">
         <v>6.049948208278826e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>450254.4527169776</v>
+        <v>629805.1090290744</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>360.2061209331608</v>
+        <v>495.66648922697</v>
       </c>
       <c r="AB8" t="n">
-        <v>492.8499058332645</v>
+        <v>678.192757822532</v>
       </c>
       <c r="AC8" t="n">
-        <v>445.8130025397242</v>
+        <v>613.4669928654627</v>
       </c>
       <c r="AD8" t="n">
-        <v>360206.1209331608</v>
+        <v>495666.48922697</v>
       </c>
       <c r="AE8" t="n">
-        <v>492849.9058332645</v>
+        <v>678192.757822532</v>
       </c>
       <c r="AF8" t="n">
         <v>6.105342813689214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>445813.0025397242</v>
+        <v>613466.9928654627</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>360.2790312631283</v>
+        <v>495.7393995569375</v>
       </c>
       <c r="AB9" t="n">
-        <v>492.9496649633028</v>
+        <v>678.2925169525703</v>
       </c>
       <c r="AC9" t="n">
-        <v>445.9032407984045</v>
+        <v>613.5572311241428</v>
       </c>
       <c r="AD9" t="n">
-        <v>360279.0312631283</v>
+        <v>495739.3995569375</v>
       </c>
       <c r="AE9" t="n">
-        <v>492949.6649633028</v>
+        <v>678292.5169525703</v>
       </c>
       <c r="AF9" t="n">
         <v>6.102309299583407e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>445903.2407984045</v>
+        <v>613557.2311241429</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.2568701809515</v>
+        <v>510.8089273713099</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.287587309877</v>
+        <v>698.911309728841</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.1134737140075</v>
+        <v>632.2081952565038</v>
       </c>
       <c r="AD2" t="n">
-        <v>361256.8701809515</v>
+        <v>510808.9273713099</v>
       </c>
       <c r="AE2" t="n">
-        <v>494287.587309877</v>
+        <v>698911.3097288411</v>
       </c>
       <c r="AF2" t="n">
         <v>7.862499604966161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>447113.4737140075</v>
+        <v>632208.1952565038</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.3387509505901</v>
+        <v>458.6026462089264</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.5651231651066</v>
+        <v>627.4803726638933</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.9953991297178</v>
+        <v>567.5945265710848</v>
       </c>
       <c r="AD3" t="n">
-        <v>318338.7509505901</v>
+        <v>458602.6462089264</v>
       </c>
       <c r="AE3" t="n">
-        <v>435565.1231651066</v>
+        <v>627480.3726638933</v>
       </c>
       <c r="AF3" t="n">
         <v>8.642591670573207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>393995.3991297178</v>
+        <v>567594.5265710847</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.9055921836068</v>
+        <v>448.8823365397781</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.9724562305038</v>
+        <v>614.1806161447673</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.4592954955403</v>
+        <v>555.5640801478187</v>
       </c>
       <c r="AD4" t="n">
-        <v>317905.5921836068</v>
+        <v>448882.3365397781</v>
       </c>
       <c r="AE4" t="n">
-        <v>434972.4562305039</v>
+        <v>614180.6161447674</v>
       </c>
       <c r="AF4" t="n">
         <v>8.677661296177487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>393459.2954955404</v>
+        <v>555564.0801478187</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.2469638340862</v>
+        <v>569.4164905994464</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.5815065027186</v>
+        <v>779.1007633207857</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.2712714961668</v>
+        <v>704.7444799442382</v>
       </c>
       <c r="AD2" t="n">
-        <v>408246.9638340862</v>
+        <v>569416.4905994465</v>
       </c>
       <c r="AE2" t="n">
-        <v>558581.5065027187</v>
+        <v>779100.7633207857</v>
       </c>
       <c r="AF2" t="n">
         <v>6.301232911084954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.94270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>505271.2714961668</v>
+        <v>704744.4799442382</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.3709249459425</v>
+        <v>501.5079916466404</v>
       </c>
       <c r="AB3" t="n">
-        <v>491.707153837306</v>
+        <v>686.1853591420238</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.7793131903974</v>
+        <v>620.6967915327085</v>
       </c>
       <c r="AD3" t="n">
-        <v>359370.9249459425</v>
+        <v>501507.9916466405</v>
       </c>
       <c r="AE3" t="n">
-        <v>491707.153837306</v>
+        <v>686185.3591420238</v>
       </c>
       <c r="AF3" t="n">
         <v>7.129360788545568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>444779.3131903974</v>
+        <v>620696.7915327086</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.5150753343869</v>
+        <v>475.2037373253869</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.6442367711734</v>
+        <v>650.1947179178853</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.9174885600492</v>
+        <v>588.1410465938196</v>
       </c>
       <c r="AD4" t="n">
-        <v>342515.075334387</v>
+        <v>475203.7373253869</v>
       </c>
       <c r="AE4" t="n">
-        <v>468644.2367711734</v>
+        <v>650194.7179178853</v>
       </c>
       <c r="AF4" t="n">
         <v>7.391772663856026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>423917.4885600492</v>
+        <v>588141.0465938196</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.7530218205554</v>
+        <v>471.9232429101771</v>
       </c>
       <c r="AB5" t="n">
-        <v>451.1826321314842</v>
+        <v>645.7062007337959</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.1223949596559</v>
+        <v>584.0809071901061</v>
       </c>
       <c r="AD5" t="n">
-        <v>329753.0218205554</v>
+        <v>471923.242910177</v>
       </c>
       <c r="AE5" t="n">
-        <v>451182.6321314842</v>
+        <v>645706.2007337959</v>
       </c>
       <c r="AF5" t="n">
         <v>7.486869069459118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>408122.3949596559</v>
+        <v>584080.9071901061</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.2498305631254</v>
+        <v>460.9843130120022</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.9164348356323</v>
+        <v>630.7390742555855</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.8359891250217</v>
+        <v>570.5422222564823</v>
       </c>
       <c r="AD2" t="n">
-        <v>322249.8305631254</v>
+        <v>460984.3130120023</v>
       </c>
       <c r="AE2" t="n">
-        <v>440916.4348356323</v>
+        <v>630739.0742555854</v>
       </c>
       <c r="AF2" t="n">
         <v>9.548999520512873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>398835.9891250217</v>
+        <v>570542.2222564823</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.8828747706521</v>
+        <v>447.5831918007482</v>
       </c>
       <c r="AB3" t="n">
-        <v>422.6271762119002</v>
+        <v>612.4030689986056</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.292231675203</v>
+        <v>553.9561796064836</v>
       </c>
       <c r="AD3" t="n">
-        <v>308882.8747706521</v>
+        <v>447583.1918007482</v>
       </c>
       <c r="AE3" t="n">
-        <v>422627.1762119003</v>
+        <v>612403.0689986056</v>
       </c>
       <c r="AF3" t="n">
         <v>9.839133074809883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>382292.231675203</v>
+        <v>553956.1796064836</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>548.0024758826331</v>
+        <v>751.8216477204337</v>
       </c>
       <c r="AB2" t="n">
-        <v>749.8011636655873</v>
+        <v>1028.675546441313</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.2411929578856</v>
+        <v>930.5001960441506</v>
       </c>
       <c r="AD2" t="n">
-        <v>548002.4758826331</v>
+        <v>751821.6477204337</v>
       </c>
       <c r="AE2" t="n">
-        <v>749801.1636655873</v>
+        <v>1028675.546441313</v>
       </c>
       <c r="AF2" t="n">
         <v>4.223736417036307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>678241.1929578856</v>
+        <v>930500.1960441506</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.7349852672675</v>
+        <v>600.7526077285418</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.1918301135159</v>
+        <v>821.9762212287329</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.2921186079702</v>
+        <v>743.5279643255342</v>
       </c>
       <c r="AD3" t="n">
-        <v>435734.9852672674</v>
+        <v>600752.6077285417</v>
       </c>
       <c r="AE3" t="n">
-        <v>596191.830113516</v>
+        <v>821976.221228733</v>
       </c>
       <c r="AF3" t="n">
         <v>5.153378009511343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.52604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>539292.1186079702</v>
+        <v>743527.9643255342</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.0921082308914</v>
+        <v>559.4008019933389</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.8966497671349</v>
+        <v>765.3968563089131</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.1289695086806</v>
+        <v>692.3484545840244</v>
       </c>
       <c r="AD4" t="n">
-        <v>404092.1082308913</v>
+        <v>559400.8019933389</v>
       </c>
       <c r="AE4" t="n">
-        <v>552896.6497671349</v>
+        <v>765396.8563089131</v>
       </c>
       <c r="AF4" t="n">
         <v>5.486983299237953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>500128.9695086806</v>
+        <v>692348.4545840244</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.3273632721106</v>
+        <v>531.8598085280269</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.5901419892962</v>
+        <v>727.7140540267935</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.1422407187607</v>
+        <v>658.2620460635652</v>
       </c>
       <c r="AD5" t="n">
-        <v>386327.3632721106</v>
+        <v>531859.8085280269</v>
       </c>
       <c r="AE5" t="n">
-        <v>528590.1419892962</v>
+        <v>727714.0540267936</v>
       </c>
       <c r="AF5" t="n">
         <v>5.696194486911795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>478142.2407187607</v>
+        <v>658262.0460635652</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.644298464405</v>
+        <v>518.2440635280257</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.8683690651777</v>
+        <v>709.0843910335167</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.2072475263468</v>
+        <v>641.4103719594704</v>
       </c>
       <c r="AD6" t="n">
-        <v>372644.298464405</v>
+        <v>518244.0635280256</v>
       </c>
       <c r="AE6" t="n">
-        <v>509868.3690651777</v>
+        <v>709084.3910335167</v>
       </c>
       <c r="AF6" t="n">
         <v>5.78262039433904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>461207.2475263468</v>
+        <v>641410.3719594703</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.4813996366047</v>
+        <v>515.0811647002255</v>
       </c>
       <c r="AB7" t="n">
-        <v>505.5407513517333</v>
+        <v>704.7567733200722</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.2926515736239</v>
+        <v>637.4957760067475</v>
       </c>
       <c r="AD7" t="n">
-        <v>369481.3996366048</v>
+        <v>515081.1647002255</v>
       </c>
       <c r="AE7" t="n">
-        <v>505540.7513517333</v>
+        <v>704756.7733200722</v>
       </c>
       <c r="AF7" t="n">
         <v>5.836998571387454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.69791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>457292.6515736239</v>
+        <v>637495.7760067475</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>365.9168826412236</v>
+        <v>511.4151624783591</v>
       </c>
       <c r="AB8" t="n">
-        <v>500.6636219432614</v>
+        <v>699.7407873475112</v>
       </c>
       <c r="AC8" t="n">
-        <v>452.8809885508024</v>
+        <v>632.958508695427</v>
       </c>
       <c r="AD8" t="n">
-        <v>365916.8826412236</v>
+        <v>511415.1624783591</v>
       </c>
       <c r="AE8" t="n">
-        <v>500663.6219432614</v>
+        <v>699740.7873475112</v>
       </c>
       <c r="AF8" t="n">
         <v>5.894787450664943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>452880.9885508025</v>
+        <v>632958.508695427</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>363.815791876283</v>
+        <v>499.6734738521533</v>
       </c>
       <c r="AB9" t="n">
-        <v>497.7888168650871</v>
+        <v>683.6752909623933</v>
       </c>
       <c r="AC9" t="n">
-        <v>450.2805508344749</v>
+        <v>618.426280737239</v>
       </c>
       <c r="AD9" t="n">
-        <v>363815.791876283</v>
+        <v>499673.4738521533</v>
       </c>
       <c r="AE9" t="n">
-        <v>497788.8168650871</v>
+        <v>683675.2909623933</v>
       </c>
       <c r="AF9" t="n">
         <v>5.914479429572416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>450280.5508344749</v>
+        <v>618426.2807372391</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>364.0806063946538</v>
+        <v>499.9382883705241</v>
       </c>
       <c r="AB10" t="n">
-        <v>498.151147771914</v>
+        <v>684.0376218692202</v>
       </c>
       <c r="AC10" t="n">
-        <v>450.6083013880888</v>
+        <v>618.754031290853</v>
       </c>
       <c r="AD10" t="n">
-        <v>364080.6063946538</v>
+        <v>499938.2883705241</v>
       </c>
       <c r="AE10" t="n">
-        <v>498151.147771914</v>
+        <v>684037.6218692202</v>
       </c>
       <c r="AF10" t="n">
         <v>5.914157665211183e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>450608.3013880888</v>
+        <v>618754.031290853</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.6251094002264</v>
+        <v>441.211046676321</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.7474667278237</v>
+        <v>603.6844189201619</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.9238488506596</v>
+        <v>546.0696252548242</v>
       </c>
       <c r="AD2" t="n">
-        <v>312625.1094002264</v>
+        <v>441211.046676321</v>
       </c>
       <c r="AE2" t="n">
-        <v>427747.4667278237</v>
+        <v>603684.4189201619</v>
       </c>
       <c r="AF2" t="n">
         <v>1.06566962466007e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>386923.8488506596</v>
+        <v>546069.6252548243</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.9873397004138</v>
+        <v>441.5732769765083</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.243086205013</v>
+        <v>604.1800383973512</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.3721671005522</v>
+        <v>546.517943504717</v>
       </c>
       <c r="AD3" t="n">
-        <v>312987.3397004138</v>
+        <v>441573.2769765083</v>
       </c>
       <c r="AE3" t="n">
-        <v>428243.086205013</v>
+        <v>604180.0383973512</v>
       </c>
       <c r="AF3" t="n">
         <v>1.065450448391481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>387372.1671005522</v>
+        <v>546517.943504717</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.7981691252455</v>
+        <v>638.3901572299204</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.3256045620682</v>
+        <v>873.4735769080147</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.5001433547675</v>
+        <v>790.1104846557777</v>
       </c>
       <c r="AD2" t="n">
-        <v>465798.1691252455</v>
+        <v>638390.1572299204</v>
       </c>
       <c r="AE2" t="n">
-        <v>637325.6045620681</v>
+        <v>873473.5769080147</v>
       </c>
       <c r="AF2" t="n">
         <v>5.244805491209076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.59895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>576500.1433547675</v>
+        <v>790110.4846557777</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.8195092664482</v>
+        <v>543.2004443851562</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.3682502013569</v>
+        <v>743.2308123200615</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.4643329891793</v>
+        <v>672.2979067232307</v>
       </c>
       <c r="AD3" t="n">
-        <v>389819.5092664481</v>
+        <v>543200.4443851562</v>
       </c>
       <c r="AE3" t="n">
-        <v>533368.2502013568</v>
+        <v>743230.8123200615</v>
       </c>
       <c r="AF3" t="n">
         <v>6.102710017976534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>482464.3329891793</v>
+        <v>672297.9067232306</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.792684339982</v>
+        <v>514.5178558673925</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.3349089326923</v>
+        <v>703.9860293235586</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.9155772731722</v>
+        <v>636.7985907355148</v>
       </c>
       <c r="AD4" t="n">
-        <v>370792.6843399821</v>
+        <v>514517.8558673926</v>
       </c>
       <c r="AE4" t="n">
-        <v>507334.9089326923</v>
+        <v>703986.0293235586</v>
       </c>
       <c r="AF4" t="n">
         <v>6.418149838542401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>458915.5772731722</v>
+        <v>636798.5907355149</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.597379627489</v>
+        <v>499.2883857361186</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.5440226555277</v>
+        <v>683.1483964131461</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.108944002108</v>
+        <v>617.9496722642709</v>
       </c>
       <c r="AD5" t="n">
-        <v>355597.379627489</v>
+        <v>499288.3857361187</v>
       </c>
       <c r="AE5" t="n">
-        <v>486544.0226555277</v>
+        <v>683148.3964131461</v>
       </c>
       <c r="AF5" t="n">
         <v>6.574758287761737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>440108.944002108</v>
+        <v>617949.672264271</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.4370704558452</v>
+        <v>484.1953963721793</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.8010188212473</v>
+        <v>662.4975025097071</v>
       </c>
       <c r="AC6" t="n">
-        <v>421.3456233407826</v>
+        <v>599.2696706912645</v>
       </c>
       <c r="AD6" t="n">
-        <v>340437.0704558452</v>
+        <v>484195.3963721793</v>
       </c>
       <c r="AE6" t="n">
-        <v>465801.0188212473</v>
+        <v>662497.5025097071</v>
       </c>
       <c r="AF6" t="n">
         <v>6.697090711922994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>421345.6233407826</v>
+        <v>599269.6706912646</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>340.7219598336372</v>
+        <v>484.4802857499714</v>
       </c>
       <c r="AB7" t="n">
-        <v>466.1908170363747</v>
+        <v>662.8873007248345</v>
       </c>
       <c r="AC7" t="n">
-        <v>421.6982197613435</v>
+        <v>599.6222671118254</v>
       </c>
       <c r="AD7" t="n">
-        <v>340721.9598336372</v>
+        <v>484480.2857499713</v>
       </c>
       <c r="AE7" t="n">
-        <v>466190.8170363747</v>
+        <v>662887.3007248346</v>
       </c>
       <c r="AF7" t="n">
         <v>6.685617565460039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.94270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>421698.2197613434</v>
+        <v>599622.2671118254</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.0673847539348</v>
+        <v>689.4381029891038</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.4237219376515</v>
+        <v>943.3196283721526</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.3397737387186</v>
+        <v>853.2905269977274</v>
       </c>
       <c r="AD2" t="n">
-        <v>506067.3847539348</v>
+        <v>689438.1029891038</v>
       </c>
       <c r="AE2" t="n">
-        <v>692423.7219376515</v>
+        <v>943319.6283721526</v>
       </c>
       <c r="AF2" t="n">
         <v>4.691603537973529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>626339.7737387186</v>
+        <v>853290.5269977273</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.9223352900331</v>
+        <v>567.3397822249121</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.9785559915765</v>
+        <v>776.2593193048406</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.0577955601233</v>
+        <v>702.1742193571832</v>
       </c>
       <c r="AD3" t="n">
-        <v>412922.3352900331</v>
+        <v>567339.7822249122</v>
       </c>
       <c r="AE3" t="n">
-        <v>564978.5559915765</v>
+        <v>776259.3193048405</v>
       </c>
       <c r="AF3" t="n">
         <v>5.583153733489468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>511057.7955601233</v>
+        <v>702174.2193571832</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.6422726140975</v>
+        <v>536.991388711415</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.5480383762766</v>
+        <v>734.735308423045</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.5813483979309</v>
+        <v>664.6132017946309</v>
       </c>
       <c r="AD4" t="n">
-        <v>382642.2726140975</v>
+        <v>536991.388711415</v>
       </c>
       <c r="AE4" t="n">
-        <v>523548.0383762767</v>
+        <v>734735.308423045</v>
       </c>
       <c r="AF4" t="n">
         <v>5.912780931497563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>473581.3483979309</v>
+        <v>664613.2017946308</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.1031534787335</v>
+        <v>521.7680247536974</v>
       </c>
       <c r="AB5" t="n">
-        <v>515.9691712065821</v>
+        <v>713.9060302486778</v>
       </c>
       <c r="AC5" t="n">
-        <v>466.7257976739052</v>
+        <v>645.7718406951498</v>
       </c>
       <c r="AD5" t="n">
-        <v>377103.1534787335</v>
+        <v>521768.0247536974</v>
       </c>
       <c r="AE5" t="n">
-        <v>515969.1712065822</v>
+        <v>713906.0302486778</v>
       </c>
       <c r="AF5" t="n">
         <v>6.062433033098363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>466725.7976739052</v>
+        <v>645771.8406951497</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.3324061170408</v>
+        <v>506.9631119732239</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.7591830269309</v>
+        <v>693.6492954357788</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.4446224012233</v>
+        <v>627.4483802222879</v>
       </c>
       <c r="AD6" t="n">
-        <v>362332.4061170408</v>
+        <v>506963.1119732239</v>
       </c>
       <c r="AE6" t="n">
-        <v>495759.1830269309</v>
+        <v>693649.2954357788</v>
       </c>
       <c r="AF6" t="n">
         <v>6.18507871744963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>448444.6224012233</v>
+        <v>627448.380222288</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.3002557032105</v>
+        <v>492.3482019635252</v>
       </c>
       <c r="AB7" t="n">
-        <v>488.8739728279202</v>
+        <v>673.6525307961847</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.216527000153</v>
+        <v>609.3600787342613</v>
       </c>
       <c r="AD7" t="n">
-        <v>357300.2557032105</v>
+        <v>492348.2019635253</v>
       </c>
       <c r="AE7" t="n">
-        <v>488873.9728279202</v>
+        <v>673652.5307961847</v>
       </c>
       <c r="AF7" t="n">
         <v>6.285252896721083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>442216.527000153</v>
+        <v>609360.0787342612</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>357.3098336929369</v>
+        <v>492.3577799532517</v>
       </c>
       <c r="AB8" t="n">
-        <v>488.887077856015</v>
+        <v>673.6656358242795</v>
       </c>
       <c r="AC8" t="n">
-        <v>442.2283813027593</v>
+        <v>609.3719330368677</v>
       </c>
       <c r="AD8" t="n">
-        <v>357309.8336929369</v>
+        <v>492357.7799532517</v>
       </c>
       <c r="AE8" t="n">
-        <v>488887.0778560149</v>
+        <v>673665.6358242795</v>
       </c>
       <c r="AF8" t="n">
         <v>6.261360001259717e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>442228.3813027593</v>
+        <v>609371.9330368678</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.7466551477771</v>
+        <v>806.4606937991819</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.6538795931442</v>
+        <v>1103.435099790845</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.3816496811309</v>
+        <v>998.1248025476949</v>
       </c>
       <c r="AD2" t="n">
-        <v>591746.6551477772</v>
+        <v>806460.6937991818</v>
       </c>
       <c r="AE2" t="n">
-        <v>809653.8795931442</v>
+        <v>1103435.099790845</v>
       </c>
       <c r="AF2" t="n">
         <v>3.822889250006316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.92708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>732381.6496811309</v>
+        <v>998124.8025476949</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.4462484260072</v>
+        <v>636.108947170327</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.0028705512927</v>
+        <v>870.3523246645939</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.876280800459</v>
+        <v>787.2871203457642</v>
       </c>
       <c r="AD3" t="n">
-        <v>460446.2484260072</v>
+        <v>636108.9471703271</v>
       </c>
       <c r="AE3" t="n">
-        <v>630002.8705512928</v>
+        <v>870352.3246645939</v>
       </c>
       <c r="AF3" t="n">
         <v>4.749092785766968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>569876.280800459</v>
+        <v>787287.1203457641</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.2820124968031</v>
+        <v>581.385886898657</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.8896116163544</v>
+        <v>795.4778193898622</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.354883770888</v>
+        <v>719.5585327674246</v>
       </c>
       <c r="AD4" t="n">
-        <v>425282.0124968031</v>
+        <v>581385.886898657</v>
       </c>
       <c r="AE4" t="n">
-        <v>581889.6116163544</v>
+        <v>795477.8193898622</v>
       </c>
       <c r="AF4" t="n">
         <v>5.12036177764764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>526354.883770888</v>
+        <v>719558.5327674246</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.2012435717436</v>
+        <v>554.576448415607</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.518950022746</v>
+        <v>758.7959629084019</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.2146853188441</v>
+        <v>686.3775411852458</v>
       </c>
       <c r="AD5" t="n">
-        <v>408201.2435717437</v>
+        <v>554576.4484156071</v>
       </c>
       <c r="AE5" t="n">
-        <v>558518.950022746</v>
+        <v>758795.9629084019</v>
       </c>
       <c r="AF5" t="n">
         <v>5.304027329646946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>505214.6853188441</v>
+        <v>686377.5411852458</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.4232510279385</v>
+        <v>540.8657756795064</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.6672927821803</v>
+        <v>740.0364155986774</v>
       </c>
       <c r="AC6" t="n">
-        <v>488.1622037868508</v>
+        <v>669.4083787415717</v>
       </c>
       <c r="AD6" t="n">
-        <v>394423.2510279386</v>
+        <v>540865.7756795065</v>
       </c>
       <c r="AE6" t="n">
-        <v>539667.2927821804</v>
+        <v>740036.4155986775</v>
       </c>
       <c r="AF6" t="n">
         <v>5.395890870395678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>488162.2037868508</v>
+        <v>669408.3787415717</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.2658360488946</v>
+        <v>536.6068754739772</v>
       </c>
       <c r="AB7" t="n">
-        <v>533.978934195648</v>
+        <v>734.209200448056</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.0167341601556</v>
+        <v>664.1373048263774</v>
       </c>
       <c r="AD7" t="n">
-        <v>390265.8360488946</v>
+        <v>536606.8754739772</v>
       </c>
       <c r="AE7" t="n">
-        <v>533978.9341956479</v>
+        <v>734209.200448056</v>
       </c>
       <c r="AF7" t="n">
         <v>5.480801577852643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.24479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>483016.7341601556</v>
+        <v>664137.3048263774</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>376.6687831543769</v>
+        <v>523.077142387164</v>
       </c>
       <c r="AB8" t="n">
-        <v>515.3748465657311</v>
+        <v>715.6972227489805</v>
       </c>
       <c r="AC8" t="n">
-        <v>466.1881945426372</v>
+        <v>647.392084297178</v>
       </c>
       <c r="AD8" t="n">
-        <v>376668.7831543769</v>
+        <v>523077.142387164</v>
       </c>
       <c r="AE8" t="n">
-        <v>515374.8465657311</v>
+        <v>715697.2227489805</v>
       </c>
       <c r="AF8" t="n">
         <v>5.54153119253382e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH8" t="n">
-        <v>466188.1945426372</v>
+        <v>647392.0842971781</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>373.263425085477</v>
+        <v>519.6717843182641</v>
       </c>
       <c r="AB9" t="n">
-        <v>510.7154854220672</v>
+        <v>711.0378616053166</v>
       </c>
       <c r="AC9" t="n">
-        <v>461.9735162870703</v>
+        <v>643.1774060416111</v>
       </c>
       <c r="AD9" t="n">
-        <v>373263.425085477</v>
+        <v>519671.7843182641</v>
       </c>
       <c r="AE9" t="n">
-        <v>510715.4854220672</v>
+        <v>711037.8616053166</v>
       </c>
       <c r="AF9" t="n">
         <v>5.600230333775809e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.61979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>461973.5162870702</v>
+        <v>643177.4060416111</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>370.5494397344422</v>
+        <v>516.856313740744</v>
       </c>
       <c r="AB10" t="n">
-        <v>507.002090932198</v>
+        <v>707.1856105513582</v>
       </c>
       <c r="AC10" t="n">
-        <v>458.6145229555321</v>
+        <v>639.6928084215741</v>
       </c>
       <c r="AD10" t="n">
-        <v>370549.4397344422</v>
+        <v>516856.313740744</v>
       </c>
       <c r="AE10" t="n">
-        <v>507002.090932198</v>
+        <v>707185.6105513582</v>
       </c>
       <c r="AF10" t="n">
         <v>5.629149197909703e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.46354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>458614.5229555321</v>
+        <v>639692.8084215741</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>370.5676616660772</v>
+        <v>516.8745356723791</v>
       </c>
       <c r="AB11" t="n">
-        <v>507.0270229829561</v>
+        <v>707.2105426021162</v>
       </c>
       <c r="AC11" t="n">
-        <v>458.6370755263582</v>
+        <v>639.7153609924</v>
       </c>
       <c r="AD11" t="n">
-        <v>370567.6616660772</v>
+        <v>516874.5356723791</v>
       </c>
       <c r="AE11" t="n">
-        <v>507027.022982956</v>
+        <v>707210.5426021162</v>
       </c>
       <c r="AF11" t="n">
         <v>5.626257311496314e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>458637.0755263582</v>
+        <v>639715.3609924</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.1738719319018</v>
+        <v>598.4608969000494</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.4781371584044</v>
+        <v>818.8406013700436</v>
       </c>
       <c r="AC2" t="n">
-        <v>528.6963640682229</v>
+        <v>740.6916036252877</v>
       </c>
       <c r="AD2" t="n">
-        <v>427173.8719319018</v>
+        <v>598460.8969000494</v>
       </c>
       <c r="AE2" t="n">
-        <v>584478.1371584043</v>
+        <v>818840.6013700436</v>
       </c>
       <c r="AF2" t="n">
         <v>5.911165040147299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.80208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>528696.3640682229</v>
+        <v>740691.6036252878</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.5240620119566</v>
+        <v>509.3201918500476</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.4943915451617</v>
+        <v>696.8743561102741</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.6324706678899</v>
+        <v>630.3656456324104</v>
       </c>
       <c r="AD3" t="n">
-        <v>366524.0620119566</v>
+        <v>509320.1918500476</v>
       </c>
       <c r="AE3" t="n">
-        <v>501494.3915451617</v>
+        <v>696874.3561102741</v>
       </c>
       <c r="AF3" t="n">
         <v>6.747102865141463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>453632.4706678899</v>
+        <v>630365.6456324104</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.4200673469623</v>
+        <v>481.6291353881427</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.7237073526406</v>
+        <v>658.986231015904</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.2258658088293</v>
+        <v>596.0935100207295</v>
       </c>
       <c r="AD4" t="n">
-        <v>348420.0673469623</v>
+        <v>481629.1353881427</v>
       </c>
       <c r="AE4" t="n">
-        <v>476723.7073526406</v>
+        <v>658986.231015904</v>
       </c>
       <c r="AF4" t="n">
         <v>7.057377089962659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.30729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>431225.8658088293</v>
+        <v>596093.5100207295</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.7230669480527</v>
+        <v>476.4508659485821</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.6146230209558</v>
+        <v>651.9010943195726</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.0359642624834</v>
+        <v>589.6845688266442</v>
       </c>
       <c r="AD5" t="n">
-        <v>333723.0669480527</v>
+        <v>476450.8659485821</v>
       </c>
       <c r="AE5" t="n">
-        <v>456614.6230209558</v>
+        <v>651901.0943195727</v>
       </c>
       <c r="AF5" t="n">
         <v>7.186856173151333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>413035.9642624834</v>
+        <v>589684.5688266442</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.6251694564731</v>
+        <v>476.3529684570024</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.480675354044</v>
+        <v>651.7671466526608</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.9148003729049</v>
+        <v>589.5634049370657</v>
       </c>
       <c r="AD6" t="n">
-        <v>333625.1694564731</v>
+        <v>476352.9684570024</v>
       </c>
       <c r="AE6" t="n">
-        <v>456480.675354044</v>
+        <v>651767.1466526608</v>
       </c>
       <c r="AF6" t="n">
         <v>7.184785121465256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>412914.8003729049</v>
+        <v>589563.4049370657</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.8771494263335</v>
+        <v>530.1905980981973</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.7646748421524</v>
+        <v>725.4301666763337</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.1590637695194</v>
+        <v>656.1961297163771</v>
       </c>
       <c r="AD2" t="n">
-        <v>379877.1494263335</v>
+        <v>530190.5980981973</v>
       </c>
       <c r="AE2" t="n">
-        <v>519764.6748421524</v>
+        <v>725430.1666763336</v>
       </c>
       <c r="AF2" t="n">
         <v>7.272805791805594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>470159.0637695194</v>
+        <v>656196.1297163771</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.7290184782424</v>
+        <v>467.2747658315934</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.3592544008972</v>
+        <v>639.3459493185424</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.5186518756375</v>
+        <v>578.3276692432556</v>
       </c>
       <c r="AD3" t="n">
-        <v>335729.0184782424</v>
+        <v>467274.7658315934</v>
       </c>
       <c r="AE3" t="n">
-        <v>459359.2544008972</v>
+        <v>639345.9493185424</v>
       </c>
       <c r="AF3" t="n">
         <v>8.046269145666985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>415518.6518756375</v>
+        <v>578327.6692432556</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.9078962200346</v>
+        <v>453.52096338109</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.4485851823368</v>
+        <v>620.5273900308235</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.4127903860056</v>
+        <v>561.3051268419428</v>
       </c>
       <c r="AD4" t="n">
-        <v>321907.8962200346</v>
+        <v>453520.96338109</v>
       </c>
       <c r="AE4" t="n">
-        <v>440448.5851823368</v>
+        <v>620527.3900308235</v>
       </c>
       <c r="AF4" t="n">
         <v>8.212160812225888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>398412.7903860055</v>
+        <v>561305.1268419428</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.8214225818199</v>
+        <v>481.4109338466045</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.6951504733114</v>
+        <v>658.6876780403986</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.0589817264042</v>
+        <v>595.8234505221848</v>
       </c>
       <c r="AD2" t="n">
-        <v>341821.4225818199</v>
+        <v>481410.9338466044</v>
       </c>
       <c r="AE2" t="n">
-        <v>467695.1504733114</v>
+        <v>658687.6780403986</v>
       </c>
       <c r="AF2" t="n">
         <v>8.626084071967243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>423058.9817264042</v>
+        <v>595823.4505221847</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.6156165536619</v>
+        <v>453.1367969808849</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.1027223132457</v>
+        <v>620.0017566138374</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.149760745122</v>
+        <v>560.8296591405427</v>
       </c>
       <c r="AD3" t="n">
-        <v>313615.6165536619</v>
+        <v>453136.7969808849</v>
       </c>
       <c r="AE3" t="n">
-        <v>429102.7223132458</v>
+        <v>620001.7566138374</v>
       </c>
       <c r="AF3" t="n">
         <v>9.179802953007735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>388149.760745122</v>
+        <v>560829.6591405427</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.5811178489454</v>
+        <v>443.3126842129988</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.4778108452725</v>
+        <v>606.559972115549</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.4434373190041</v>
+        <v>548.6707396891079</v>
       </c>
       <c r="AD2" t="n">
-        <v>306581.1178489454</v>
+        <v>443312.6842129988</v>
       </c>
       <c r="AE2" t="n">
-        <v>419477.8108452725</v>
+        <v>606559.972115549</v>
       </c>
       <c r="AF2" t="n">
         <v>1.170247827207581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>379443.4373190041</v>
+        <v>548670.7396891079</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.820469460726</v>
+        <v>668.5745726940719</v>
       </c>
       <c r="AB2" t="n">
-        <v>664.7209992026217</v>
+        <v>914.7732257884942</v>
       </c>
       <c r="AC2" t="n">
-        <v>601.2809599805045</v>
+        <v>827.4685530115257</v>
       </c>
       <c r="AD2" t="n">
-        <v>485820.469460726</v>
+        <v>668574.5726940719</v>
       </c>
       <c r="AE2" t="n">
-        <v>664720.9992026216</v>
+        <v>914773.2257884942</v>
       </c>
       <c r="AF2" t="n">
         <v>4.954841628561815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.58854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>601280.9599805045</v>
+        <v>827468.5530115258</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.5603637476336</v>
+        <v>560.3858415966235</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.2738258568899</v>
+        <v>766.7446309510074</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.1838326523257</v>
+        <v>693.5675995058907</v>
       </c>
       <c r="AD3" t="n">
-        <v>406560.3637476336</v>
+        <v>560385.8415966235</v>
       </c>
       <c r="AE3" t="n">
-        <v>556273.8258568898</v>
+        <v>766744.6309510074</v>
       </c>
       <c r="AF3" t="n">
         <v>5.816849752887492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>503183.8326523257</v>
+        <v>693567.5995058907</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.8039451778743</v>
+        <v>521.008987834647</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.5597812092079</v>
+        <v>712.8674824496874</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.3554792832979</v>
+        <v>644.832410440484</v>
       </c>
       <c r="AD4" t="n">
-        <v>376803.9451778743</v>
+        <v>521008.9878346469</v>
       </c>
       <c r="AE4" t="n">
-        <v>515559.781209208</v>
+        <v>712867.4824496873</v>
       </c>
       <c r="AF4" t="n">
         <v>6.155083200669083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>466355.4792832979</v>
+        <v>644832.4104404839</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.5958690207147</v>
+        <v>505.8682314851919</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.7514204780142</v>
+        <v>692.1512316493352</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.5330392955716</v>
+        <v>626.0932895410767</v>
       </c>
       <c r="AD5" t="n">
-        <v>361595.8690207147</v>
+        <v>505868.2314851918</v>
       </c>
       <c r="AE5" t="n">
-        <v>494751.4204780142</v>
+        <v>692151.2316493351</v>
       </c>
       <c r="AF5" t="n">
         <v>6.311394378388725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.72395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>447533.0392955716</v>
+        <v>626093.2895410768</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>356.3160033638526</v>
+        <v>490.9347762471889</v>
       </c>
       <c r="AB6" t="n">
-        <v>487.5272753550622</v>
+        <v>671.7186193751515</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.9983564440028</v>
+        <v>607.6107371049897</v>
       </c>
       <c r="AD6" t="n">
-        <v>356316.0033638526</v>
+        <v>490934.7762471889</v>
       </c>
       <c r="AE6" t="n">
-        <v>487527.2753550622</v>
+        <v>671718.6193751516</v>
       </c>
       <c r="AF6" t="n">
         <v>6.432629494856942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.17708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>440998.3564440028</v>
+        <v>607610.7371049897</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>343.2603767909679</v>
+        <v>487.4985738366641</v>
       </c>
       <c r="AB7" t="n">
-        <v>469.6639911044471</v>
+        <v>667.0170556425203</v>
       </c>
       <c r="AC7" t="n">
-        <v>424.8399189709895</v>
+        <v>603.3578840163146</v>
       </c>
       <c r="AD7" t="n">
-        <v>343260.3767909679</v>
+        <v>487498.5738366641</v>
       </c>
       <c r="AE7" t="n">
-        <v>469663.9911044471</v>
+        <v>667017.0556425203</v>
       </c>
       <c r="AF7" t="n">
         <v>6.492620694854417e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>424839.9189709895</v>
+        <v>603357.8840163146</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>343.6088631867391</v>
+        <v>487.8470602324354</v>
       </c>
       <c r="AB8" t="n">
-        <v>470.140805565276</v>
+        <v>667.4938701033492</v>
       </c>
       <c r="AC8" t="n">
-        <v>425.2712269288901</v>
+        <v>603.7891919742153</v>
       </c>
       <c r="AD8" t="n">
-        <v>343608.8631867391</v>
+        <v>487847.0602324354</v>
       </c>
       <c r="AE8" t="n">
-        <v>470140.805565276</v>
+        <v>667493.8701033492</v>
       </c>
       <c r="AF8" t="n">
         <v>6.492759885573668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>425271.2269288902</v>
+        <v>603789.1919742153</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.4962889989024</v>
+        <v>773.9250282322801</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.2099470113784</v>
+        <v>1058.918366789948</v>
       </c>
       <c r="AC2" t="n">
-        <v>704.843243296641</v>
+        <v>957.8566840647769</v>
       </c>
       <c r="AD2" t="n">
-        <v>569496.2889989024</v>
+        <v>773925.02823228</v>
       </c>
       <c r="AE2" t="n">
-        <v>779209.9470113784</v>
+        <v>1058918.366789948</v>
       </c>
       <c r="AF2" t="n">
         <v>4.017543548190021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.75520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>704843.243296641</v>
+        <v>957856.6840647769</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.8927333696458</v>
+        <v>618.3088376234793</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.6678180136136</v>
+        <v>845.9974294971863</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.5275911716385</v>
+        <v>765.2566221908239</v>
       </c>
       <c r="AD3" t="n">
-        <v>452892.7333696458</v>
+        <v>618308.8376234793</v>
       </c>
       <c r="AE3" t="n">
-        <v>619667.8180136136</v>
+        <v>845997.4294971863</v>
       </c>
       <c r="AF3" t="n">
         <v>4.945176908853562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>560527.5911716385</v>
+        <v>765256.6221908239</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.9157060029404</v>
+        <v>565.6628012715184</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.8647531578538</v>
+        <v>773.964799981229</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.3366082950925</v>
+        <v>700.0986857374389</v>
       </c>
       <c r="AD4" t="n">
-        <v>409915.7060029404</v>
+        <v>565662.8012715185</v>
       </c>
       <c r="AE4" t="n">
-        <v>560864.7531578537</v>
+        <v>773964.799981229</v>
       </c>
       <c r="AF4" t="n">
         <v>5.295452674489514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>507336.6082950925</v>
+        <v>700098.685737439</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.8043239534965</v>
+        <v>547.5172538032937</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.0839612200205</v>
+        <v>749.1372614101477</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.920860359746</v>
+        <v>677.6406526019126</v>
       </c>
       <c r="AD5" t="n">
-        <v>391804.3239534965</v>
+        <v>547517.2538032937</v>
       </c>
       <c r="AE5" t="n">
-        <v>536083.9612200204</v>
+        <v>749137.2614101478</v>
       </c>
       <c r="AF5" t="n">
         <v>5.504926386398555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>484920.860359746</v>
+        <v>677640.6526019126</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.5324588737326</v>
+        <v>534.4759055416463</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.6072510733875</v>
+        <v>731.2935133748823</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.8714011464056</v>
+        <v>661.499886835275</v>
       </c>
       <c r="AD6" t="n">
-        <v>388532.4588737326</v>
+        <v>534475.9055416463</v>
       </c>
       <c r="AE6" t="n">
-        <v>531607.2510733875</v>
+        <v>731293.5133748823</v>
       </c>
       <c r="AF6" t="n">
         <v>5.583282509196111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.32291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>480871.4011464056</v>
+        <v>661499.886835275</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.4476718256187</v>
+        <v>520.4584383012367</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.335824057208</v>
+        <v>712.1141962895443</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.4392120770326</v>
+        <v>644.1510168542212</v>
       </c>
       <c r="AD7" t="n">
-        <v>374447.6718256187</v>
+        <v>520458.4383012367</v>
       </c>
       <c r="AE7" t="n">
-        <v>512335.824057208</v>
+        <v>712114.1962895443</v>
       </c>
       <c r="AF7" t="n">
         <v>5.670945779805899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.88020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>463439.2120770326</v>
+        <v>644151.0168542212</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>370.6077336334261</v>
+        <v>516.6185001090441</v>
       </c>
       <c r="AB8" t="n">
-        <v>507.0818512165331</v>
+        <v>706.8602234488694</v>
       </c>
       <c r="AC8" t="n">
-        <v>458.6866710302745</v>
+        <v>639.3984758074631</v>
       </c>
       <c r="AD8" t="n">
-        <v>370607.7336334261</v>
+        <v>516618.5001090441</v>
       </c>
       <c r="AE8" t="n">
-        <v>507081.8512165331</v>
+        <v>706860.2234488694</v>
       </c>
       <c r="AF8" t="n">
         <v>5.734900977948048e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>458686.6710302745</v>
+        <v>639398.4758074632</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>368.4744973779848</v>
+        <v>514.3837786271177</v>
       </c>
       <c r="AB9" t="n">
-        <v>504.1630632600969</v>
+        <v>703.8025789283439</v>
       </c>
       <c r="AC9" t="n">
-        <v>456.046448099856</v>
+        <v>636.6326485885456</v>
       </c>
       <c r="AD9" t="n">
-        <v>368474.4973779849</v>
+        <v>514383.7786271177</v>
       </c>
       <c r="AE9" t="n">
-        <v>504163.0632600969</v>
+        <v>703802.578928344</v>
       </c>
       <c r="AF9" t="n">
         <v>5.753389501304774e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.46354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>456046.448099856</v>
+        <v>636632.6485885456</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>366.7929134249467</v>
+        <v>503.0341967186812</v>
       </c>
       <c r="AB10" t="n">
-        <v>501.862245909302</v>
+        <v>688.2735802530058</v>
       </c>
       <c r="AC10" t="n">
-        <v>453.9652175278034</v>
+        <v>622.585715751695</v>
       </c>
       <c r="AD10" t="n">
-        <v>366792.9134249467</v>
+        <v>503034.1967186813</v>
       </c>
       <c r="AE10" t="n">
-        <v>501862.245909302</v>
+        <v>688273.5802530057</v>
       </c>
       <c r="AF10" t="n">
         <v>5.7806820834028e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>453965.2175278034</v>
+        <v>622585.715751695</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.4752870734375</v>
+        <v>461.8143461519658</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.3836937950485</v>
+        <v>631.8747622161615</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.9267237205916</v>
+        <v>571.5695217520489</v>
       </c>
       <c r="AD2" t="n">
-        <v>317475.2870734375</v>
+        <v>461814.3461519658</v>
       </c>
       <c r="AE2" t="n">
-        <v>434383.6937950485</v>
+        <v>631874.7622161615</v>
       </c>
       <c r="AF2" t="n">
         <v>1.307789444717491e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>392926.7237205916</v>
+        <v>571569.5217520489</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.9107901205659</v>
+        <v>549.933196081094</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.8073417449652</v>
+        <v>752.4428602184852</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.7162550942404</v>
+        <v>680.6307696994191</v>
       </c>
       <c r="AD2" t="n">
-        <v>398910.7901205659</v>
+        <v>549933.196081094</v>
       </c>
       <c r="AE2" t="n">
-        <v>545807.3417449653</v>
+        <v>752442.8602184852</v>
       </c>
       <c r="AF2" t="n">
         <v>6.745887655104417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>493716.2550942404</v>
+        <v>680630.7696994192</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.1159314354508</v>
+        <v>484.7283839243879</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.4663545965493</v>
+        <v>663.2267595923904</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.6611446140208</v>
+        <v>599.9293285014953</v>
       </c>
       <c r="AD3" t="n">
-        <v>343115.9314354508</v>
+        <v>484728.3839243879</v>
       </c>
       <c r="AE3" t="n">
-        <v>469466.3545965492</v>
+        <v>663226.7595923904</v>
       </c>
       <c r="AF3" t="n">
         <v>7.552745955154573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>424661.1446140208</v>
+        <v>599929.3285014953</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.338006243714</v>
+        <v>467.9162933138704</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.5100571593956</v>
+        <v>640.2237155219888</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.8957639849032</v>
+        <v>579.1216626721977</v>
       </c>
       <c r="AD4" t="n">
-        <v>326338.006243714</v>
+        <v>467916.2933138704</v>
       </c>
       <c r="AE4" t="n">
-        <v>446510.0571593955</v>
+        <v>640223.7155219888</v>
       </c>
       <c r="AF4" t="n">
         <v>7.803095762715748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>403895.7639849032</v>
+        <v>579121.6626721977</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.1632788319549</v>
+        <v>458.3667888791584</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.2709874061974</v>
+        <v>627.1576622600137</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.6795107134138</v>
+        <v>567.3026151952246</v>
       </c>
       <c r="AD5" t="n">
-        <v>326163.2788319549</v>
+        <v>458366.7888791584</v>
       </c>
       <c r="AE5" t="n">
-        <v>446270.9874061974</v>
+        <v>627157.6622600137</v>
       </c>
       <c r="AF5" t="n">
         <v>7.836614358213143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.63020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>403679.5107134138</v>
+        <v>567302.6151952245</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.4286556610633</v>
+        <v>618.383553326482</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.8233817177492</v>
+        <v>846.0996588182587</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.5272554626071</v>
+        <v>765.3490948889728</v>
       </c>
       <c r="AD2" t="n">
-        <v>446428.6556610633</v>
+        <v>618383.553326482</v>
       </c>
       <c r="AE2" t="n">
-        <v>610823.3817177492</v>
+        <v>846099.6588182587</v>
       </c>
       <c r="AF2" t="n">
         <v>5.559471863752671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>552527.255462607</v>
+        <v>765349.0948889728</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.972258365504</v>
+        <v>526.2291577946324</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.9995394392951</v>
+        <v>720.0099492865845</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.9897588331806</v>
+        <v>651.2932102669829</v>
       </c>
       <c r="AD3" t="n">
-        <v>382972.258365504</v>
+        <v>526229.1577946325</v>
       </c>
       <c r="AE3" t="n">
-        <v>523999.5394392951</v>
+        <v>720009.9492865845</v>
       </c>
       <c r="AF3" t="n">
         <v>6.407682545617662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>473989.7588331806</v>
+        <v>651293.2102669829</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.1299678636415</v>
+        <v>497.4200216816934</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.5362451425934</v>
+        <v>680.5920182874767</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.2927859570747</v>
+        <v>615.6372712790163</v>
       </c>
       <c r="AD4" t="n">
-        <v>354129.9678636414</v>
+        <v>497420.0216816934</v>
       </c>
       <c r="AE4" t="n">
-        <v>484536.2451425934</v>
+        <v>680592.0182874766</v>
       </c>
       <c r="AF4" t="n">
         <v>6.751173433812007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>438292.7859570747</v>
+        <v>615637.2712790163</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.432264689888</v>
+        <v>483.1342161698942</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.1086404122267</v>
+        <v>661.0455489409742</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.4786228009743</v>
+        <v>597.956289533302</v>
       </c>
       <c r="AD5" t="n">
-        <v>349432.264689888</v>
+        <v>483134.2161698942</v>
       </c>
       <c r="AE5" t="n">
-        <v>478108.6404122267</v>
+        <v>661045.5489409742</v>
       </c>
       <c r="AF5" t="n">
         <v>6.865522276281189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.09895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>432478.6228009743</v>
+        <v>597956.289533302</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.0498634783272</v>
+        <v>480.3057518775984</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.166492801582</v>
+        <v>657.1755193132174</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.1534099798358</v>
+        <v>594.4556101015974</v>
       </c>
       <c r="AD6" t="n">
-        <v>337049.8634783272</v>
+        <v>480305.7518775984</v>
       </c>
       <c r="AE6" t="n">
-        <v>461166.492801582</v>
+        <v>657175.5193132174</v>
       </c>
       <c r="AF6" t="n">
         <v>6.918475270041206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>417153.4099798359</v>
+        <v>594455.6101015974</v>
       </c>
     </row>
   </sheetData>
